--- a/reports/summary.xlsx
+++ b/reports/summary.xlsx
@@ -12,24 +12,36 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
-    <t>Log Level</t>
+    <t>Log Level Counts</t>
   </si>
   <si>
-    <t>Count</t>
+    <t>{ERROR=4, INFO=6, DEBUG=1, WARN=1}</t>
   </si>
   <si>
-    <t>ERROR</t>
+    <t>Peak Hours</t>
   </si>
   <si>
-    <t>INFO</t>
+    <t>[com.logdensor.model.PeakHour@59b57025]</t>
   </si>
   <si>
-    <t>DEBUG</t>
+    <t>Frequent Errors</t>
   </si>
   <si>
-    <t>WARN</t>
+    <t>[High CPU usage detected, DB connection timeout, Memory leak suspected, DB deadlock detected]</t>
+  </si>
+  <si>
+    <t>Login Sessions</t>
+  </si>
+  <si>
+    <t>[com.logdensor.model.LoginSession@2ef48f8c, com.logdensor.model.LoginSession@4fdab95d]</t>
+  </si>
+  <si>
+    <t>Anomalies</t>
+  </si>
+  <si>
+    <t>[]</t>
   </si>
 </sst>
 </file>
@@ -37,13 +49,18 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="0"/>
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="11.0"/>
       <color indexed="8"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="11.0"/>
+      <b val="true"/>
     </font>
   </fonts>
   <fills count="2">
@@ -66,8 +83,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="true"/>
   </cellXfs>
 </styleSheet>
 </file>
@@ -79,6 +97,10 @@
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.0"/>
+  <cols>
+    <col min="1" max="1" width="14.35546875" customWidth="true" bestFit="true"/>
+    <col min="2" max="2" width="80.3828125" customWidth="true" bestFit="true"/>
+  </cols>
   <sheetData>
     <row r="1">
       <c r="A1" t="s" s="0">
@@ -92,32 +114,32 @@
       <c r="A2" t="s" s="0">
         <v>2</v>
       </c>
-      <c r="B2" t="n" s="0">
-        <v>4.0</v>
+      <c r="B2" t="s" s="0">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="s" s="0">
-        <v>3</v>
+        <v>4</v>
       </c>
-      <c r="B3" t="n" s="0">
-        <v>6.0</v>
+      <c r="B3" t="s" s="0">
+        <v>5</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s" s="0">
-        <v>4</v>
+        <v>6</v>
       </c>
-      <c r="B4" t="n" s="0">
-        <v>1.0</v>
+      <c r="B4" t="s" s="0">
+        <v>7</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s" s="0">
-        <v>5</v>
+        <v>8</v>
       </c>
-      <c r="B5" t="n" s="0">
-        <v>1.0</v>
+      <c r="B5" t="s" s="0">
+        <v>9</v>
       </c>
     </row>
   </sheetData>
